--- a/data/trans_orig/Q5411-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{547F23E3-41B0-4B29-8B89-F18AD0249F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FD25B8-14E9-4B3A-B7F2-07DD8D8FDE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDCF1506-B050-49D0-8D33-304E0ABE743A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4A4CC38-2C2A-43B6-A6A9-B288CB5E0A19}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,427 +77,415 @@
     <t>6,88%</t>
   </si>
   <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2015 (Tasa respuesta: 19,52%)</t>
@@ -506,394 +494,400 @@
     <t>10,8%</t>
   </si>
   <si>
-    <t>14,2%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>89,2%</t>
   </si>
   <si>
-    <t>85,8%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FFDAE8-C0FF-4CA3-8EC4-687EAD6C83E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8745D-C77D-4292-8418-E9F272217DF3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1492,7 +1486,7 @@
         <v>521</v>
       </c>
       <c r="I5" s="7">
-        <v>529528</v>
+        <v>529527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1543,7 +1537,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2056,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232083E1-AE87-4665-9652-65C52FE394D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DE4CAA-1F84-412D-8805-332EB029138F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2341,7 +2335,7 @@
         <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2350,13 +2344,13 @@
         <v>7589</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2365,13 +2359,13 @@
         <v>13712</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2380,13 @@
         <v>112542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -2401,13 +2395,13 @@
         <v>75485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -2416,13 +2410,13 @@
         <v>188027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2484,13 @@
         <v>986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2505,13 +2499,13 @@
         <v>3315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2520,13 +2514,13 @@
         <v>4300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,10 +2535,10 @@
         <v>25589</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -2556,13 +2550,13 @@
         <v>18931</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -2571,13 +2565,13 @@
         <v>44521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2639,13 @@
         <v>61456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -2660,13 +2654,13 @@
         <v>159972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -2675,13 +2669,13 @@
         <v>221428</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2690,13 @@
         <v>498181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -2711,13 +2705,13 @@
         <v>579893</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>996</v>
@@ -2726,13 +2720,13 @@
         <v>1078074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DB641C-C29D-4EC6-850B-FBDBCE3FA5D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C82340D-3076-4010-8B68-4165D0ABEF69}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2824,7 +2818,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2931,13 +2925,13 @@
         <v>38204</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -2946,13 +2940,13 @@
         <v>86161</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -2961,13 +2955,13 @@
         <v>124365</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,16 +2973,16 @@
         <v>343</v>
       </c>
       <c r="D5" s="7">
-        <v>315698</v>
+        <v>315697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>403</v>
@@ -2997,13 +2991,13 @@
         <v>468596</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>746</v>
@@ -3012,13 +3006,13 @@
         <v>784293</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,7 +3024,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3086,13 +3080,13 @@
         <v>8078</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3101,13 +3095,13 @@
         <v>15150</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -3116,13 +3110,13 @@
         <v>23228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3131,13 @@
         <v>184454</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -3152,13 +3146,13 @@
         <v>172924</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>334</v>
@@ -3167,13 +3161,13 @@
         <v>357378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3235,13 @@
         <v>1572</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3256,13 +3250,13 @@
         <v>1376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3271,13 +3265,13 @@
         <v>2948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,10 +3286,10 @@
         <v>40457</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -3307,10 +3301,10 @@
         <v>32298</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>43</v>
@@ -3322,10 +3316,10 @@
         <v>72755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -3396,13 +3390,13 @@
         <v>47855</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -3411,13 +3405,13 @@
         <v>102686</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -3426,13 +3420,13 @@
         <v>150541</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3441,13 @@
         <v>540608</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -3462,13 +3456,13 @@
         <v>673819</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>1145</v>
@@ -3477,13 +3471,13 @@
         <v>1214427</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A20431-97A6-407C-AE3D-B1F5D2B79BD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B0405-F299-46D5-9DDB-13078185128D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3682,13 +3676,13 @@
         <v>35759</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>210</v>
@@ -3697,13 +3691,13 @@
         <v>113313</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>264</v>
@@ -3712,13 +3706,13 @@
         <v>149072</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3727,13 @@
         <v>251713</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>807</v>
@@ -3748,13 +3742,13 @@
         <v>441158</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>1181</v>
@@ -3763,13 +3757,13 @@
         <v>692870</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3831,13 @@
         <v>14459</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3852,13 +3846,13 @@
         <v>17704</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3867,13 +3861,13 @@
         <v>32162</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3882,13 @@
         <v>280107</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
@@ -3903,13 +3897,13 @@
         <v>368718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -3918,13 +3912,13 @@
         <v>648826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3986,13 @@
         <v>3098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4007,13 +4001,13 @@
         <v>1739</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4022,13 +4016,13 @@
         <v>4837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4037,13 @@
         <v>108888</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -4058,13 +4052,13 @@
         <v>76506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>313</v>
@@ -4073,13 +4067,13 @@
         <v>185394</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4141,13 @@
         <v>53316</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -4162,13 +4156,13 @@
         <v>132755</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
@@ -4177,13 +4171,13 @@
         <v>186071</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4192,13 @@
         <v>640708</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>1450</v>
@@ -4213,13 +4207,13 @@
         <v>886383</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>2393</v>
@@ -4228,13 +4222,13 @@
         <v>1527091</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5411-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FD25B8-14E9-4B3A-B7F2-07DD8D8FDE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80A7BEA2-E8A0-446E-9DF7-EA7A960CBE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4A4CC38-2C2A-43B6-A6A9-B288CB5E0A19}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A689886-5326-4F4E-B38E-D63BF6E68487}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>6,88%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -107,28 +107,28 @@
     <t>93,12%</t>
   </si>
   <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,31 +143,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,99%</t>
+    <t>5,78%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,01%</t>
+    <t>94,22%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -176,19 +176,19 @@
     <t>91,24%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,91 +197,91 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>20,28%</t>
+    <t>17,91%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>21,47%</t>
+    <t>22,93%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>11,8%</t>
+    <t>11,7%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>79,72%</t>
+    <t>82,09%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>78,53%</t>
+    <t>77,07%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>88,2%</t>
+    <t>88,3%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -293,481 +293,499 @@
     <t>13,11%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>86,89%</t>
   </si>
   <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>80,61%</t>
   </si>
   <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
   </si>
   <si>
     <t>98,12%</t>
@@ -1299,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8745D-C77D-4292-8418-E9F272217DF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43FE7D5-78CD-4210-B7A9-9FDC4320CE44}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,7 +1504,7 @@
         <v>521</v>
       </c>
       <c r="I5" s="7">
-        <v>529527</v>
+        <v>529528</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1537,7 +1555,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DE4CAA-1F84-412D-8805-332EB029138F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439FF5EB-46FB-453D-960F-1D9DC3818ACF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2335,7 +2353,7 @@
         <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2344,13 +2362,13 @@
         <v>7589</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2359,13 +2377,13 @@
         <v>13712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2398,13 @@
         <v>112542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -2395,13 +2413,13 @@
         <v>75485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -2410,13 +2428,13 @@
         <v>188027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2502,13 @@
         <v>986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2499,13 +2517,13 @@
         <v>3315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2514,13 +2532,13 @@
         <v>4300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,10 +2553,10 @@
         <v>25589</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -2550,13 +2568,13 @@
         <v>18931</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -2565,13 +2583,13 @@
         <v>44521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2657,13 @@
         <v>61456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -2654,13 +2672,13 @@
         <v>159972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -2669,13 +2687,13 @@
         <v>221428</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2708,13 @@
         <v>498181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -2705,13 +2723,13 @@
         <v>579893</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>996</v>
@@ -2720,13 +2738,13 @@
         <v>1078074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C82340D-3076-4010-8B68-4165D0ABEF69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE28F51-98ED-4EF6-9701-B614C9224250}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2925,13 +2943,13 @@
         <v>38204</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -2940,13 +2958,13 @@
         <v>86161</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -2955,13 +2973,13 @@
         <v>124365</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,16 +2991,16 @@
         <v>343</v>
       </c>
       <c r="D5" s="7">
-        <v>315697</v>
+        <v>315698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>403</v>
@@ -2991,13 +3009,13 @@
         <v>468596</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>746</v>
@@ -3006,13 +3024,13 @@
         <v>784293</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,7 +3042,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3080,13 +3098,13 @@
         <v>8078</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3095,13 +3113,13 @@
         <v>15150</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -3110,13 +3128,13 @@
         <v>23228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3149,13 @@
         <v>184454</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -3146,13 +3164,13 @@
         <v>172924</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>334</v>
@@ -3161,13 +3179,13 @@
         <v>357378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3253,13 @@
         <v>1572</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3250,13 +3268,13 @@
         <v>1376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3265,13 +3283,13 @@
         <v>2948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,10 +3304,10 @@
         <v>40457</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -3301,10 +3319,10 @@
         <v>32298</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>43</v>
@@ -3316,10 +3334,10 @@
         <v>72755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -3390,13 +3408,13 @@
         <v>47855</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -3405,13 +3423,13 @@
         <v>102686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -3420,13 +3438,13 @@
         <v>150541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3459,13 @@
         <v>540608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -3456,13 +3474,13 @@
         <v>673819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>1145</v>
@@ -3471,13 +3489,13 @@
         <v>1214427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B0405-F299-46D5-9DDB-13078185128D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1009A-F6B2-4F2B-9215-D42E05C8987F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3569,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3676,13 +3694,13 @@
         <v>35759</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>210</v>
@@ -3691,13 +3709,13 @@
         <v>113313</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>264</v>
@@ -3706,13 +3724,13 @@
         <v>149072</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3745,13 @@
         <v>251713</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>807</v>
@@ -3742,13 +3760,13 @@
         <v>441158</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>1181</v>
@@ -3757,13 +3775,13 @@
         <v>692870</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3849,13 @@
         <v>14459</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3846,13 +3864,13 @@
         <v>17704</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3861,13 +3879,13 @@
         <v>32162</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3900,13 @@
         <v>280107</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
@@ -3897,13 +3915,13 @@
         <v>368718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -3912,13 +3930,13 @@
         <v>648826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +4004,13 @@
         <v>3098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4001,13 +4019,13 @@
         <v>1739</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4016,13 +4034,13 @@
         <v>4837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4055,13 @@
         <v>108888</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -4052,13 +4070,13 @@
         <v>76506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>313</v>
@@ -4067,13 +4085,13 @@
         <v>185394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4159,13 @@
         <v>53316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -4156,13 +4174,13 @@
         <v>132755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
@@ -4171,13 +4189,13 @@
         <v>186071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4210,13 @@
         <v>640708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>1450</v>
@@ -4207,13 +4225,13 @@
         <v>886383</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>2393</v>
@@ -4222,13 +4240,13 @@
         <v>1527091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5411-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80A7BEA2-E8A0-446E-9DF7-EA7A960CBE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AF0595-B43C-4C08-9D60-D690BDE30DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A689886-5326-4F4E-B38E-D63BF6E68487}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66E29A1A-18FE-4D50-9F9F-703D91B9449B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>6,88%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>7,56%</t>
+    <t>7,61%</t>
   </si>
   <si>
     <t>12,79%</t>
@@ -95,10 +95,10 @@
     <t>8,73%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -107,10 +107,10 @@
     <t>93,12%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>90,09%</t>
@@ -119,16 +119,16 @@
     <t>87,21%</t>
   </si>
   <si>
-    <t>92,44%</t>
+    <t>92,39%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,31 +143,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,78%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>94,22%</t>
+    <t>95,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -176,19 +176,19 @@
     <t>91,24%</t>
   </si>
   <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,46 +197,46 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>17,91%</t>
+    <t>15,2%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>22,93%</t>
+    <t>22,15%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>11,7%</t>
+    <t>11,06%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>82,09%</t>
+    <t>84,8%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>77,07%</t>
+    <t>77,85%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>88,3%</t>
+    <t>88,94%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>9,58%</t>
@@ -245,31 +245,31 @@
     <t>7,31%</t>
   </si>
   <si>
-    <t>11,83%</t>
+    <t>12,16%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>88,17%</t>
+    <t>87,84%</t>
   </si>
   <si>
     <t>92,69%</t>
@@ -278,10 +278,10 @@
     <t>92,13%</t>
   </si>
   <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -293,619 +293,607 @@
     <t>13,11%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>86,89%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>80,61%</t>
   </si>
   <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43FE7D5-78CD-4210-B7A9-9FDC4320CE44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9119F5-3773-471A-AB41-C4C8D2703F59}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2068,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439FF5EB-46FB-453D-960F-1D9DC3818ACF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A29EAD3-3637-40D4-A550-7B7794235D60}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2520,10 +2508,10 @@
         <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2532,13 +2520,13 @@
         <v>4300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,10 +2541,10 @@
         <v>25589</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -2568,13 +2556,13 @@
         <v>18931</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -2583,13 +2571,13 @@
         <v>44521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2645,13 @@
         <v>61456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -2672,13 +2660,13 @@
         <v>159972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -2687,13 +2675,13 @@
         <v>221428</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2696,13 @@
         <v>498181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -2723,13 +2711,13 @@
         <v>579893</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>996</v>
@@ -2738,13 +2726,13 @@
         <v>1078074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE28F51-98ED-4EF6-9701-B614C9224250}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0112E412-15CB-4800-A55B-BF2E758999F6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,13 +2931,13 @@
         <v>38204</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -2958,13 +2946,13 @@
         <v>86161</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -2973,13 +2961,13 @@
         <v>124365</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2982,13 @@
         <v>315698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="H5" s="7">
         <v>403</v>
@@ -3283,13 +3271,13 @@
         <v>2948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,10 +3292,10 @@
         <v>40457</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -3319,10 +3307,10 @@
         <v>32298</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>43</v>
@@ -3334,10 +3322,10 @@
         <v>72755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -3408,13 +3396,13 @@
         <v>47855</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -3423,13 +3411,13 @@
         <v>102686</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -3438,13 +3426,13 @@
         <v>150541</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3447,13 @@
         <v>540608</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -3474,13 +3462,13 @@
         <v>673819</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>1145</v>
@@ -3489,13 +3477,13 @@
         <v>1214427</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1009A-F6B2-4F2B-9215-D42E05C8987F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01398967-7F6A-4596-AF8A-36F28110D85B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3682,13 @@
         <v>35759</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>210</v>
@@ -3709,13 +3697,13 @@
         <v>113313</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>264</v>
@@ -3724,13 +3712,13 @@
         <v>149072</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3733,13 @@
         <v>251713</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>807</v>
@@ -3760,13 +3748,13 @@
         <v>441158</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>1181</v>
@@ -3775,13 +3763,13 @@
         <v>692870</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3837,13 @@
         <v>14459</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3864,10 +3852,10 @@
         <v>17704</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>239</v>
@@ -3879,13 +3867,13 @@
         <v>32162</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3888,13 @@
         <v>280107</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
@@ -3915,13 +3903,13 @@
         <v>368718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -3930,13 +3918,13 @@
         <v>648826</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3992,13 @@
         <v>3098</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4019,13 +4007,13 @@
         <v>1739</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4034,13 +4022,13 @@
         <v>4837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4043,13 @@
         <v>108888</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -4070,13 +4058,13 @@
         <v>76506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>313</v>
@@ -4085,13 +4073,13 @@
         <v>185394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4147,13 @@
         <v>53316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -4174,13 +4162,13 @@
         <v>132755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
@@ -4189,13 +4177,13 @@
         <v>186071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4198,13 @@
         <v>640708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>1450</v>
@@ -4225,13 +4213,13 @@
         <v>886383</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>2393</v>
@@ -4240,13 +4228,13 @@
         <v>1527091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5411-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AF0595-B43C-4C08-9D60-D690BDE30DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CBAF48-89F9-42F7-A6DF-BB854D698FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66E29A1A-18FE-4D50-9F9F-703D91B9449B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C8ACFFBB-C1C6-4E3C-A483-8819066F9F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -692,208 +692,220 @@
     <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9119F5-3773-471A-AB41-C4C8D2703F59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044F8077-9E35-42CD-9B12-7CF70A3EF150}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1492,7 +1504,7 @@
         <v>521</v>
       </c>
       <c r="I5" s="7">
-        <v>529528</v>
+        <v>529527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1543,7 +1555,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2056,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A29EAD3-3637-40D4-A550-7B7794235D60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD26CDB2-E63B-4FD8-AA25-3A591FCFD46E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2807,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0112E412-15CB-4800-A55B-BF2E758999F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD48842-D6DF-41DE-BAD3-EF1914D2D518}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,7 +2991,7 @@
         <v>343</v>
       </c>
       <c r="D5" s="7">
-        <v>315698</v>
+        <v>315697</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>162</v>
@@ -3030,7 +3042,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3558,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01398967-7F6A-4596-AF8A-36F28110D85B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2CB1BA-FDAD-459C-8E33-B148E6331B94}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3679,7 +3691,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="7">
-        <v>35759</v>
+        <v>33643</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>217</v>
@@ -3694,7 +3706,7 @@
         <v>210</v>
       </c>
       <c r="I4" s="7">
-        <v>113313</v>
+        <v>102081</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>220</v>
@@ -3709,7 +3721,7 @@
         <v>264</v>
       </c>
       <c r="N4" s="7">
-        <v>149072</v>
+        <v>135724</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>223</v>
@@ -3730,7 +3742,7 @@
         <v>374</v>
       </c>
       <c r="D5" s="7">
-        <v>251713</v>
+        <v>235601</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>226</v>
@@ -3745,7 +3757,7 @@
         <v>807</v>
       </c>
       <c r="I5" s="7">
-        <v>441158</v>
+        <v>397700</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>229</v>
@@ -3760,7 +3772,7 @@
         <v>1181</v>
       </c>
       <c r="N5" s="7">
-        <v>692870</v>
+        <v>633301</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>232</v>
@@ -3781,7 +3793,7 @@
         <v>428</v>
       </c>
       <c r="D6" s="7">
-        <v>287472</v>
+        <v>269244</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3796,7 +3808,7 @@
         <v>1017</v>
       </c>
       <c r="I6" s="7">
-        <v>554471</v>
+        <v>499781</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3811,7 +3823,7 @@
         <v>1445</v>
       </c>
       <c r="N6" s="7">
-        <v>841942</v>
+        <v>769025</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3834,7 +3846,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>14459</v>
+        <v>13349</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>235</v>
@@ -3849,31 +3861,31 @@
         <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>17704</v>
+        <v>15943</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>32162</v>
+        <v>29292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,46 +3897,46 @@
         <v>405</v>
       </c>
       <c r="D8" s="7">
-        <v>280107</v>
+        <v>259908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
       </c>
       <c r="I8" s="7">
-        <v>368718</v>
+        <v>439796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
       </c>
       <c r="N8" s="7">
-        <v>648826</v>
+        <v>699704</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,7 +3948,7 @@
         <v>426</v>
       </c>
       <c r="D9" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3951,7 +3963,7 @@
         <v>529</v>
       </c>
       <c r="I9" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3966,7 +3978,7 @@
         <v>955</v>
       </c>
       <c r="N9" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3989,46 +4001,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3098</v>
+        <v>2660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1739</v>
+        <v>1658</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>4837</v>
+        <v>4317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,46 +4052,46 @@
         <v>164</v>
       </c>
       <c r="D11" s="7">
-        <v>108888</v>
+        <v>102326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
       </c>
       <c r="I11" s="7">
-        <v>76506</v>
+        <v>69667</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>313</v>
       </c>
       <c r="N11" s="7">
-        <v>185394</v>
+        <v>171994</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,7 +4103,7 @@
         <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4106,7 +4118,7 @@
         <v>152</v>
       </c>
       <c r="I12" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4121,7 +4133,7 @@
         <v>320</v>
       </c>
       <c r="N12" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4144,46 +4156,46 @@
         <v>79</v>
       </c>
       <c r="D13" s="7">
-        <v>53316</v>
+        <v>49651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
       </c>
       <c r="I13" s="7">
-        <v>132755</v>
+        <v>119682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
       </c>
       <c r="N13" s="7">
-        <v>186071</v>
+        <v>169333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,46 +4207,46 @@
         <v>943</v>
       </c>
       <c r="D14" s="7">
-        <v>640708</v>
+        <v>597836</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>1450</v>
       </c>
       <c r="I14" s="7">
-        <v>886383</v>
+        <v>907163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>2393</v>
       </c>
       <c r="N14" s="7">
-        <v>1527091</v>
+        <v>1504999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,7 +4258,7 @@
         <v>1022</v>
       </c>
       <c r="D15" s="7">
-        <v>694024</v>
+        <v>647487</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4261,7 +4273,7 @@
         <v>1698</v>
       </c>
       <c r="I15" s="7">
-        <v>1019138</v>
+        <v>1026845</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4276,7 +4288,7 @@
         <v>2720</v>
       </c>
       <c r="N15" s="7">
-        <v>1713162</v>
+        <v>1674332</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
